--- a/data/landings/cdfw/public/fish_bulletins/raw/fb117/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb117/raw/Table19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb117/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE01938-459D-A24D-8285-2C57BEE3DEAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA19B45-CFD9-E042-B3F2-7D9AF5D628AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20680" yWindow="460" windowWidth="13260" windowHeight="25980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>Port Hueneme</t>
   </si>
@@ -518,13 +518,12 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -545,8 +544,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1904702</v>
